--- a/AAII_Financials/Yearly/KNMCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KNMCY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>KNMCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2386600</v>
+        <v>2441500</v>
       </c>
       <c r="E8" s="3">
-        <v>2177000</v>
+        <v>2439100</v>
       </c>
       <c r="F8" s="3">
-        <v>2090000</v>
+        <v>2224900</v>
       </c>
       <c r="G8" s="3">
-        <v>2271600</v>
+        <v>2136000</v>
       </c>
       <c r="H8" s="3">
-        <v>1983000</v>
+        <v>2321600</v>
       </c>
       <c r="I8" s="3">
-        <v>1977900</v>
+        <v>2026700</v>
       </c>
       <c r="J8" s="3">
+        <v>2021500</v>
+      </c>
+      <c r="K8" s="3">
         <v>2054300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2402500</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1412200</v>
+        <v>1514700</v>
       </c>
       <c r="E9" s="3">
-        <v>1292800</v>
+        <v>1443300</v>
       </c>
       <c r="F9" s="3">
-        <v>1283400</v>
+        <v>1321300</v>
       </c>
       <c r="G9" s="3">
-        <v>1476700</v>
+        <v>1311700</v>
       </c>
       <c r="H9" s="3">
-        <v>1333500</v>
+        <v>1509200</v>
       </c>
       <c r="I9" s="3">
-        <v>2742800</v>
+        <v>1362900</v>
       </c>
       <c r="J9" s="3">
+        <v>2803100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1389100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1576700</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>974400</v>
+        <v>926800</v>
       </c>
       <c r="E10" s="3">
-        <v>884200</v>
+        <v>995800</v>
       </c>
       <c r="F10" s="3">
-        <v>806600</v>
+        <v>903700</v>
       </c>
       <c r="G10" s="3">
-        <v>794900</v>
+        <v>824300</v>
       </c>
       <c r="H10" s="3">
-        <v>649500</v>
+        <v>812400</v>
       </c>
       <c r="I10" s="3">
-        <v>-764800</v>
+        <v>663800</v>
       </c>
       <c r="J10" s="3">
+        <v>-781600</v>
+      </c>
+      <c r="K10" s="3">
         <v>665200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>825700</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -832,18 +845,21 @@
       <c r="H12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="3">
-        <v>23800</v>
+      <c r="I12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J12" s="3">
+        <v>24300</v>
+      </c>
+      <c r="K12" s="3">
         <v>21900</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>29900</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-1500</v>
+        <v>30600</v>
       </c>
       <c r="F14" s="3">
-        <v>5000</v>
+        <v>-1600</v>
       </c>
       <c r="G14" s="3">
-        <v>37900</v>
+        <v>5100</v>
       </c>
       <c r="H14" s="3">
-        <v>48700</v>
+        <v>38700</v>
       </c>
       <c r="I14" s="3">
-        <v>111500</v>
-      </c>
-      <c r="J14" s="3" t="s">
+        <v>49800</v>
+      </c>
+      <c r="J14" s="3">
+        <v>114000</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3100</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1927300</v>
+        <v>2153800</v>
       </c>
       <c r="E17" s="3">
-        <v>1766300</v>
+        <v>1969700</v>
       </c>
       <c r="F17" s="3">
-        <v>1759500</v>
+        <v>1805200</v>
       </c>
       <c r="G17" s="3">
-        <v>2047300</v>
+        <v>1798200</v>
       </c>
       <c r="H17" s="3">
-        <v>1843900</v>
+        <v>2092300</v>
       </c>
       <c r="I17" s="3">
-        <v>1906800</v>
+        <v>1884500</v>
       </c>
       <c r="J17" s="3">
+        <v>1948800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1855500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2032300</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>459200</v>
+        <v>287700</v>
       </c>
       <c r="E18" s="3">
-        <v>410700</v>
+        <v>469300</v>
       </c>
       <c r="F18" s="3">
-        <v>330500</v>
+        <v>419700</v>
       </c>
       <c r="G18" s="3">
-        <v>224300</v>
+        <v>337800</v>
       </c>
       <c r="H18" s="3">
-        <v>139100</v>
+        <v>229300</v>
       </c>
       <c r="I18" s="3">
-        <v>71100</v>
+        <v>142200</v>
       </c>
       <c r="J18" s="3">
+        <v>72700</v>
+      </c>
+      <c r="K18" s="3">
         <v>198800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>370200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5300</v>
+        <v>-5400</v>
       </c>
       <c r="E20" s="3">
-        <v>3200</v>
+        <v>5400</v>
       </c>
       <c r="F20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>24400</v>
       </c>
       <c r="I20" s="3">
         <v>24900</v>
       </c>
       <c r="J20" s="3">
+        <v>25500</v>
+      </c>
+      <c r="K20" s="3">
         <v>12200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>592900</v>
+        <v>529100</v>
       </c>
       <c r="E21" s="3">
-        <v>527700</v>
+        <v>605600</v>
       </c>
       <c r="F21" s="3">
-        <v>479800</v>
+        <v>538900</v>
       </c>
       <c r="G21" s="3">
-        <v>489600</v>
+        <v>489900</v>
       </c>
       <c r="H21" s="3">
-        <v>351500</v>
+        <v>499500</v>
       </c>
       <c r="I21" s="3">
-        <v>289400</v>
+        <v>358600</v>
       </c>
       <c r="J21" s="3">
+        <v>295100</v>
+      </c>
+      <c r="K21" s="3">
         <v>306800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>463400</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>7200</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="F22" s="3">
-        <v>8500</v>
+        <v>7700</v>
       </c>
       <c r="G22" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="H22" s="3">
-        <v>9400</v>
+        <v>8800</v>
       </c>
       <c r="I22" s="3">
-        <v>10800</v>
+        <v>9600</v>
       </c>
       <c r="J22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K22" s="3">
         <v>11800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12900</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>457300</v>
+        <v>282400</v>
       </c>
       <c r="E23" s="3">
-        <v>406400</v>
+        <v>467400</v>
       </c>
       <c r="F23" s="3">
-        <v>322900</v>
+        <v>415300</v>
       </c>
       <c r="G23" s="3">
-        <v>216100</v>
+        <v>330000</v>
       </c>
       <c r="H23" s="3">
-        <v>154200</v>
+        <v>220800</v>
       </c>
       <c r="I23" s="3">
-        <v>85200</v>
+        <v>157600</v>
       </c>
       <c r="J23" s="3">
+        <v>87100</v>
+      </c>
+      <c r="K23" s="3">
         <v>199200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>361800</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>146300</v>
+        <v>97500</v>
       </c>
       <c r="E24" s="3">
-        <v>129100</v>
+        <v>149500</v>
       </c>
       <c r="F24" s="3">
-        <v>86800</v>
+        <v>131900</v>
       </c>
       <c r="G24" s="3">
-        <v>120300</v>
+        <v>88700</v>
       </c>
       <c r="H24" s="3">
-        <v>63500</v>
+        <v>123000</v>
       </c>
       <c r="I24" s="3">
-        <v>43900</v>
+        <v>64900</v>
       </c>
       <c r="J24" s="3">
+        <v>44800</v>
+      </c>
+      <c r="K24" s="3">
         <v>77000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>153100</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>311000</v>
+        <v>184800</v>
       </c>
       <c r="E26" s="3">
-        <v>277300</v>
+        <v>317900</v>
       </c>
       <c r="F26" s="3">
-        <v>236100</v>
+        <v>283400</v>
       </c>
       <c r="G26" s="3">
-        <v>95700</v>
+        <v>241300</v>
       </c>
       <c r="H26" s="3">
-        <v>90600</v>
+        <v>97800</v>
       </c>
       <c r="I26" s="3">
-        <v>41400</v>
+        <v>92600</v>
       </c>
       <c r="J26" s="3">
+        <v>42300</v>
+      </c>
+      <c r="K26" s="3">
         <v>122200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>208700</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>310800</v>
+        <v>184800</v>
       </c>
       <c r="E27" s="3">
-        <v>277300</v>
+        <v>317700</v>
       </c>
       <c r="F27" s="3">
-        <v>235900</v>
+        <v>283400</v>
       </c>
       <c r="G27" s="3">
-        <v>95600</v>
+        <v>241100</v>
       </c>
       <c r="H27" s="3">
-        <v>90200</v>
+        <v>97700</v>
       </c>
       <c r="I27" s="3">
-        <v>40800</v>
+        <v>92100</v>
       </c>
       <c r="J27" s="3">
+        <v>41700</v>
+      </c>
+      <c r="K27" s="3">
         <v>119800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>208000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5300</v>
+        <v>5400</v>
       </c>
       <c r="E32" s="3">
-        <v>-3200</v>
+        <v>-5400</v>
       </c>
       <c r="F32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-24400</v>
       </c>
       <c r="I32" s="3">
         <v>-24900</v>
       </c>
       <c r="J32" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-12200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>310800</v>
+        <v>184800</v>
       </c>
       <c r="E33" s="3">
-        <v>277300</v>
+        <v>317700</v>
       </c>
       <c r="F33" s="3">
-        <v>235900</v>
+        <v>283400</v>
       </c>
       <c r="G33" s="3">
-        <v>95600</v>
+        <v>241100</v>
       </c>
       <c r="H33" s="3">
-        <v>90200</v>
+        <v>97700</v>
       </c>
       <c r="I33" s="3">
-        <v>40800</v>
+        <v>92100</v>
       </c>
       <c r="J33" s="3">
+        <v>41700</v>
+      </c>
+      <c r="K33" s="3">
         <v>119800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>208000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>310800</v>
+        <v>184800</v>
       </c>
       <c r="E35" s="3">
-        <v>277300</v>
+        <v>317700</v>
       </c>
       <c r="F35" s="3">
-        <v>235900</v>
+        <v>283400</v>
       </c>
       <c r="G35" s="3">
-        <v>95600</v>
+        <v>241100</v>
       </c>
       <c r="H35" s="3">
-        <v>90200</v>
+        <v>97700</v>
       </c>
       <c r="I35" s="3">
-        <v>40800</v>
+        <v>92100</v>
       </c>
       <c r="J35" s="3">
+        <v>41700</v>
+      </c>
+      <c r="K35" s="3">
         <v>119800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>208000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1393800</v>
+        <v>1219700</v>
       </c>
       <c r="E41" s="3">
-        <v>1373300</v>
+        <v>1423000</v>
       </c>
       <c r="F41" s="3">
-        <v>1207500</v>
+        <v>1402000</v>
       </c>
       <c r="G41" s="3">
-        <v>1022500</v>
+        <v>1232800</v>
       </c>
       <c r="H41" s="3">
-        <v>535500</v>
+        <v>1043900</v>
       </c>
       <c r="I41" s="3">
-        <v>909400</v>
+        <v>546600</v>
       </c>
       <c r="J41" s="3">
+        <v>928400</v>
+      </c>
+      <c r="K41" s="3">
         <v>578800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>691100</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,219 +1708,243 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>297300</v>
+        <v>295300</v>
       </c>
       <c r="E43" s="3">
-        <v>243200</v>
+        <v>303500</v>
       </c>
       <c r="F43" s="3">
-        <v>243500</v>
+        <v>248300</v>
       </c>
       <c r="G43" s="3">
-        <v>229900</v>
+        <v>248600</v>
       </c>
       <c r="H43" s="3">
-        <v>298800</v>
+        <v>234700</v>
       </c>
       <c r="I43" s="3">
-        <v>564000</v>
+        <v>305000</v>
       </c>
       <c r="J43" s="3">
+        <v>575800</v>
+      </c>
+      <c r="K43" s="3">
         <v>300600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>304200</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>75600</v>
+        <v>92800</v>
       </c>
       <c r="E44" s="3">
-        <v>62200</v>
+        <v>77200</v>
       </c>
       <c r="F44" s="3">
-        <v>67500</v>
+        <v>63500</v>
       </c>
       <c r="G44" s="3">
-        <v>83400</v>
+        <v>69000</v>
       </c>
       <c r="H44" s="3">
-        <v>116800</v>
+        <v>85100</v>
       </c>
       <c r="I44" s="3">
-        <v>384000</v>
+        <v>119200</v>
       </c>
       <c r="J44" s="3">
+        <v>392100</v>
+      </c>
+      <c r="K44" s="3">
         <v>239500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>200000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>121500</v>
+        <v>134500</v>
       </c>
       <c r="E45" s="3">
-        <v>100000</v>
+        <v>124000</v>
       </c>
       <c r="F45" s="3">
-        <v>71700</v>
+        <v>102100</v>
       </c>
       <c r="G45" s="3">
-        <v>66200</v>
+        <v>73200</v>
       </c>
       <c r="H45" s="3">
-        <v>106800</v>
+        <v>67600</v>
       </c>
       <c r="I45" s="3">
-        <v>347100</v>
+        <v>109100</v>
       </c>
       <c r="J45" s="3">
+        <v>354400</v>
+      </c>
+      <c r="K45" s="3">
         <v>276300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>268900</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1888200</v>
+        <v>1742300</v>
       </c>
       <c r="E46" s="3">
-        <v>1778700</v>
+        <v>1927700</v>
       </c>
       <c r="F46" s="3">
-        <v>1590300</v>
+        <v>1815800</v>
       </c>
       <c r="G46" s="3">
-        <v>1402000</v>
+        <v>1623500</v>
       </c>
       <c r="H46" s="3">
-        <v>1057800</v>
+        <v>1431300</v>
       </c>
       <c r="I46" s="3">
-        <v>935100</v>
+        <v>1079900</v>
       </c>
       <c r="J46" s="3">
+        <v>954600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1395200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1464200</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>229700</v>
+        <v>188900</v>
       </c>
       <c r="E47" s="3">
-        <v>232800</v>
+        <v>234500</v>
       </c>
       <c r="F47" s="3">
-        <v>228700</v>
+        <v>237700</v>
       </c>
       <c r="G47" s="3">
-        <v>242800</v>
+        <v>233500</v>
       </c>
       <c r="H47" s="3">
-        <v>242000</v>
+        <v>247900</v>
       </c>
       <c r="I47" s="3">
-        <v>265900</v>
+        <v>247100</v>
       </c>
       <c r="J47" s="3">
+        <v>271400</v>
+      </c>
+      <c r="K47" s="3">
         <v>24400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>23600</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>747600</v>
+        <v>1383800</v>
       </c>
       <c r="E48" s="3">
-        <v>718800</v>
+        <v>763200</v>
       </c>
       <c r="F48" s="3">
-        <v>687200</v>
+        <v>733800</v>
       </c>
       <c r="G48" s="3">
-        <v>729600</v>
+        <v>701500</v>
       </c>
       <c r="H48" s="3">
-        <v>720500</v>
+        <v>744800</v>
       </c>
       <c r="I48" s="3">
-        <v>1431900</v>
+        <v>735500</v>
       </c>
       <c r="J48" s="3">
+        <v>1461800</v>
+      </c>
+      <c r="K48" s="3">
         <v>569500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>562700</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>346100</v>
+        <v>319400</v>
       </c>
       <c r="E49" s="3">
-        <v>335100</v>
+        <v>353400</v>
       </c>
       <c r="F49" s="3">
-        <v>316100</v>
+        <v>342200</v>
       </c>
       <c r="G49" s="3">
-        <v>358800</v>
+        <v>322700</v>
       </c>
       <c r="H49" s="3">
-        <v>554800</v>
+        <v>366300</v>
       </c>
       <c r="I49" s="3">
-        <v>1101400</v>
+        <v>566400</v>
       </c>
       <c r="J49" s="3">
+        <v>1124400</v>
+      </c>
+      <c r="K49" s="3">
         <v>583200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>570900</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>224700</v>
+        <v>255200</v>
       </c>
       <c r="E52" s="3">
-        <v>235200</v>
+        <v>229400</v>
       </c>
       <c r="F52" s="3">
-        <v>242400</v>
+        <v>240100</v>
       </c>
       <c r="G52" s="3">
-        <v>250100</v>
+        <v>247400</v>
       </c>
       <c r="H52" s="3">
-        <v>257200</v>
+        <v>255300</v>
       </c>
       <c r="I52" s="3">
-        <v>639800</v>
+        <v>262600</v>
       </c>
       <c r="J52" s="3">
+        <v>653200</v>
+      </c>
+      <c r="K52" s="3">
         <v>363300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>343700</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3436400</v>
+        <v>3889600</v>
       </c>
       <c r="E54" s="3">
-        <v>3300700</v>
+        <v>3508200</v>
       </c>
       <c r="F54" s="3">
-        <v>3064600</v>
+        <v>3369600</v>
       </c>
       <c r="G54" s="3">
-        <v>2983200</v>
+        <v>3128700</v>
       </c>
       <c r="H54" s="3">
-        <v>2832400</v>
+        <v>3045600</v>
       </c>
       <c r="I54" s="3">
-        <v>2732400</v>
+        <v>2891600</v>
       </c>
       <c r="J54" s="3">
+        <v>2789500</v>
+      </c>
+      <c r="K54" s="3">
         <v>2935600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2965200</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>116900</v>
+        <v>290100</v>
       </c>
       <c r="E57" s="3">
-        <v>96600</v>
+        <v>119300</v>
       </c>
       <c r="F57" s="3">
-        <v>75700</v>
+        <v>98600</v>
       </c>
       <c r="G57" s="3">
-        <v>76200</v>
+        <v>77300</v>
       </c>
       <c r="H57" s="3">
-        <v>99700</v>
+        <v>77800</v>
       </c>
       <c r="I57" s="3">
-        <v>189900</v>
+        <v>101800</v>
       </c>
       <c r="J57" s="3">
+        <v>193900</v>
+      </c>
+      <c r="K57" s="3">
         <v>131300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>147300</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>95900</v>
+        <v>262300</v>
       </c>
       <c r="E58" s="3">
-        <v>108200</v>
+        <v>97900</v>
       </c>
       <c r="F58" s="3">
-        <v>96400</v>
+        <v>110500</v>
       </c>
       <c r="G58" s="3">
-        <v>81900</v>
+        <v>98400</v>
       </c>
       <c r="H58" s="3">
-        <v>54600</v>
+        <v>83600</v>
       </c>
       <c r="I58" s="3">
-        <v>136300</v>
+        <v>55800</v>
       </c>
       <c r="J58" s="3">
+        <v>139100</v>
+      </c>
+      <c r="K58" s="3">
         <v>107700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>88200</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>431100</v>
+        <v>345600</v>
       </c>
       <c r="E59" s="3">
-        <v>425000</v>
+        <v>440100</v>
       </c>
       <c r="F59" s="3">
-        <v>344600</v>
+        <v>433900</v>
       </c>
       <c r="G59" s="3">
-        <v>400900</v>
+        <v>351800</v>
       </c>
       <c r="H59" s="3">
-        <v>314700</v>
+        <v>409200</v>
       </c>
       <c r="I59" s="3">
-        <v>524400</v>
+        <v>321300</v>
       </c>
       <c r="J59" s="3">
+        <v>535400</v>
+      </c>
+      <c r="K59" s="3">
         <v>302000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>378300</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>643900</v>
+        <v>898000</v>
       </c>
       <c r="E60" s="3">
-        <v>629800</v>
+        <v>657300</v>
       </c>
       <c r="F60" s="3">
-        <v>516700</v>
+        <v>643000</v>
       </c>
       <c r="G60" s="3">
-        <v>559000</v>
+        <v>527500</v>
       </c>
       <c r="H60" s="3">
-        <v>469000</v>
+        <v>570700</v>
       </c>
       <c r="I60" s="3">
-        <v>438600</v>
+        <v>478800</v>
       </c>
       <c r="J60" s="3">
+        <v>447800</v>
+      </c>
+      <c r="K60" s="3">
         <v>541000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>613700</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>89100</v>
+        <v>91500</v>
       </c>
       <c r="E61" s="3">
-        <v>134000</v>
+        <v>91000</v>
       </c>
       <c r="F61" s="3">
-        <v>311900</v>
+        <v>136800</v>
       </c>
       <c r="G61" s="3">
-        <v>373300</v>
+        <v>318400</v>
       </c>
       <c r="H61" s="3">
-        <v>303500</v>
+        <v>381100</v>
       </c>
       <c r="I61" s="3">
-        <v>321900</v>
+        <v>309900</v>
       </c>
       <c r="J61" s="3">
+        <v>328600</v>
+      </c>
+      <c r="K61" s="3">
         <v>205300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>269400</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>190900</v>
+        <v>404300</v>
       </c>
       <c r="E62" s="3">
-        <v>223000</v>
+        <v>194900</v>
       </c>
       <c r="F62" s="3">
-        <v>98100</v>
+        <v>227700</v>
       </c>
       <c r="G62" s="3">
-        <v>110500</v>
+        <v>100200</v>
       </c>
       <c r="H62" s="3">
-        <v>73700</v>
+        <v>112800</v>
       </c>
       <c r="I62" s="3">
-        <v>197600</v>
+        <v>75200</v>
       </c>
       <c r="J62" s="3">
+        <v>201700</v>
+      </c>
+      <c r="K62" s="3">
         <v>135000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>131900</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>930900</v>
+        <v>1401200</v>
       </c>
       <c r="E66" s="3">
-        <v>993800</v>
+        <v>950400</v>
       </c>
       <c r="F66" s="3">
-        <v>933600</v>
+        <v>1014500</v>
       </c>
       <c r="G66" s="3">
-        <v>1049300</v>
+        <v>953100</v>
       </c>
       <c r="H66" s="3">
-        <v>852700</v>
+        <v>1071300</v>
       </c>
       <c r="I66" s="3">
-        <v>840000</v>
+        <v>870500</v>
       </c>
       <c r="J66" s="3">
+        <v>857600</v>
+      </c>
+      <c r="K66" s="3">
         <v>886500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1017400</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1577500</v>
+        <v>1617200</v>
       </c>
       <c r="E72" s="3">
-        <v>1387800</v>
+        <v>1610500</v>
       </c>
       <c r="F72" s="3">
-        <v>1197700</v>
+        <v>1416800</v>
       </c>
       <c r="G72" s="3">
-        <v>998100</v>
+        <v>1222800</v>
       </c>
       <c r="H72" s="3">
-        <v>931500</v>
+        <v>1019000</v>
       </c>
       <c r="I72" s="3">
-        <v>1892500</v>
+        <v>951000</v>
       </c>
       <c r="J72" s="3">
+        <v>1932000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1037100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>975000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2505400</v>
+        <v>2488300</v>
       </c>
       <c r="E76" s="3">
-        <v>2306900</v>
+        <v>2557800</v>
       </c>
       <c r="F76" s="3">
-        <v>2131100</v>
+        <v>2355100</v>
       </c>
       <c r="G76" s="3">
-        <v>1933900</v>
+        <v>2175600</v>
       </c>
       <c r="H76" s="3">
-        <v>1979700</v>
+        <v>1974300</v>
       </c>
       <c r="I76" s="3">
-        <v>1892400</v>
+        <v>2021100</v>
       </c>
       <c r="J76" s="3">
+        <v>1931900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2049100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1947700</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>310800</v>
+        <v>184800</v>
       </c>
       <c r="E81" s="3">
-        <v>277300</v>
+        <v>317700</v>
       </c>
       <c r="F81" s="3">
-        <v>235900</v>
+        <v>283400</v>
       </c>
       <c r="G81" s="3">
-        <v>95600</v>
+        <v>241100</v>
       </c>
       <c r="H81" s="3">
-        <v>90200</v>
+        <v>97700</v>
       </c>
       <c r="I81" s="3">
-        <v>40800</v>
+        <v>92100</v>
       </c>
       <c r="J81" s="3">
+        <v>41700</v>
+      </c>
+      <c r="K81" s="3">
         <v>119800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>208000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>128100</v>
+        <v>247000</v>
       </c>
       <c r="E83" s="3">
-        <v>113500</v>
+        <v>130900</v>
       </c>
       <c r="F83" s="3">
-        <v>148000</v>
+        <v>116000</v>
       </c>
       <c r="G83" s="3">
-        <v>264400</v>
+        <v>151300</v>
       </c>
       <c r="H83" s="3">
-        <v>187500</v>
+        <v>270200</v>
       </c>
       <c r="I83" s="3">
-        <v>192900</v>
+        <v>191700</v>
       </c>
       <c r="J83" s="3">
+        <v>197200</v>
+      </c>
+      <c r="K83" s="3">
         <v>95600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>88600</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>446600</v>
+        <v>475300</v>
       </c>
       <c r="E89" s="3">
-        <v>490700</v>
+        <v>456400</v>
       </c>
       <c r="F89" s="3">
-        <v>397800</v>
+        <v>501500</v>
       </c>
       <c r="G89" s="3">
-        <v>648400</v>
+        <v>406500</v>
       </c>
       <c r="H89" s="3">
-        <v>411400</v>
+        <v>662700</v>
       </c>
       <c r="I89" s="3">
-        <v>270100</v>
+        <v>420400</v>
       </c>
       <c r="J89" s="3">
+        <v>276000</v>
+      </c>
+      <c r="K89" s="3">
         <v>93000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>342800</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-216400</v>
+        <v>-581200</v>
       </c>
       <c r="E91" s="3">
-        <v>-160300</v>
+        <v>-221200</v>
       </c>
       <c r="F91" s="3">
-        <v>-136100</v>
+        <v>-163800</v>
       </c>
       <c r="G91" s="3">
-        <v>-173400</v>
+        <v>-139100</v>
       </c>
       <c r="H91" s="3">
-        <v>-234200</v>
+        <v>-177200</v>
       </c>
       <c r="I91" s="3">
-        <v>-670800</v>
+        <v>-239400</v>
       </c>
       <c r="J91" s="3">
+        <v>-685500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-90200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-83700</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-204800</v>
+        <v>-577300</v>
       </c>
       <c r="E94" s="3">
-        <v>-168000</v>
+        <v>-209300</v>
       </c>
       <c r="F94" s="3">
-        <v>-123800</v>
+        <v>-171700</v>
       </c>
       <c r="G94" s="3">
-        <v>-170400</v>
+        <v>-126500</v>
       </c>
       <c r="H94" s="3">
-        <v>-222700</v>
+        <v>-174200</v>
       </c>
       <c r="I94" s="3">
-        <v>-431000</v>
+        <v>-227600</v>
       </c>
       <c r="J94" s="3">
+        <v>-440500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-105200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-69100</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-120900</v>
+        <v>-129900</v>
       </c>
       <c r="E96" s="3">
-        <v>-87200</v>
+        <v>-123600</v>
       </c>
       <c r="F96" s="3">
-        <v>-36200</v>
+        <v>-89100</v>
       </c>
       <c r="G96" s="3">
-        <v>-29000</v>
+        <v>-37000</v>
       </c>
       <c r="H96" s="3">
-        <v>-32100</v>
+        <v>-29600</v>
       </c>
       <c r="I96" s="3">
-        <v>-52800</v>
+        <v>-32800</v>
       </c>
       <c r="J96" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-62900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-51400</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-203800</v>
+        <v>-147400</v>
       </c>
       <c r="E100" s="3">
-        <v>-134500</v>
+        <v>-208200</v>
       </c>
       <c r="F100" s="3">
-        <v>-85600</v>
+        <v>-137500</v>
       </c>
       <c r="G100" s="3">
-        <v>-17100</v>
+        <v>-87500</v>
       </c>
       <c r="H100" s="3">
-        <v>-61900</v>
+        <v>-17400</v>
       </c>
       <c r="I100" s="3">
-        <v>31300</v>
+        <v>-63200</v>
       </c>
       <c r="J100" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-112500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-119800</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5200</v>
+        <v>-8900</v>
       </c>
       <c r="E101" s="3">
-        <v>-8700</v>
+        <v>5300</v>
       </c>
       <c r="F101" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
-        <v>-13300</v>
-      </c>
       <c r="H101" s="3">
-        <v>6200</v>
+        <v>-13600</v>
       </c>
       <c r="I101" s="3">
-        <v>5600</v>
+        <v>6300</v>
       </c>
       <c r="J101" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K101" s="3">
         <v>8500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>43200</v>
+        <v>-258400</v>
       </c>
       <c r="E102" s="3">
-        <v>179500</v>
+        <v>44200</v>
       </c>
       <c r="F102" s="3">
-        <v>189400</v>
+        <v>183400</v>
       </c>
       <c r="G102" s="3">
-        <v>447700</v>
+        <v>193600</v>
       </c>
       <c r="H102" s="3">
-        <v>133000</v>
+        <v>457600</v>
       </c>
       <c r="I102" s="3">
-        <v>-124000</v>
+        <v>135900</v>
       </c>
       <c r="J102" s="3">
+        <v>-126800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-116200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>152900</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/KNMCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KNMCY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>KNMCY</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2441500</v>
+        <v>2480900</v>
       </c>
       <c r="E8" s="3">
-        <v>2439100</v>
+        <v>2478500</v>
       </c>
       <c r="F8" s="3">
-        <v>2224900</v>
+        <v>2260900</v>
       </c>
       <c r="G8" s="3">
-        <v>2136000</v>
+        <v>2170500</v>
       </c>
       <c r="H8" s="3">
-        <v>2321600</v>
+        <v>2359100</v>
       </c>
       <c r="I8" s="3">
-        <v>2026700</v>
+        <v>2059400</v>
       </c>
       <c r="J8" s="3">
-        <v>2021500</v>
+        <v>2054100</v>
       </c>
       <c r="K8" s="3">
         <v>2054300</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1514700</v>
+        <v>1539100</v>
       </c>
       <c r="E9" s="3">
-        <v>1443300</v>
+        <v>1466600</v>
       </c>
       <c r="F9" s="3">
-        <v>1321300</v>
+        <v>1342600</v>
       </c>
       <c r="G9" s="3">
-        <v>1311700</v>
+        <v>1332800</v>
       </c>
       <c r="H9" s="3">
-        <v>1509200</v>
+        <v>1533500</v>
       </c>
       <c r="I9" s="3">
-        <v>1362900</v>
+        <v>1384900</v>
       </c>
       <c r="J9" s="3">
-        <v>2803100</v>
+        <v>2848400</v>
       </c>
       <c r="K9" s="3">
         <v>1389100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>926800</v>
+        <v>941800</v>
       </c>
       <c r="E10" s="3">
-        <v>995800</v>
+        <v>1011900</v>
       </c>
       <c r="F10" s="3">
-        <v>903700</v>
+        <v>918200</v>
       </c>
       <c r="G10" s="3">
-        <v>824300</v>
+        <v>837600</v>
       </c>
       <c r="H10" s="3">
-        <v>812400</v>
+        <v>825500</v>
       </c>
       <c r="I10" s="3">
-        <v>663800</v>
+        <v>674500</v>
       </c>
       <c r="J10" s="3">
-        <v>-781600</v>
+        <v>-794300</v>
       </c>
       <c r="K10" s="3">
         <v>665200</v>
@@ -849,7 +849,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>24300</v>
+        <v>24700</v>
       </c>
       <c r="K12" s="3">
         <v>21900</v>
@@ -896,11 +896,11 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>103700</v>
       </c>
       <c r="E14" s="3">
-        <v>30600</v>
+        <v>31100</v>
       </c>
       <c r="F14" s="3">
         <v>-1600</v>
@@ -909,13 +909,13 @@
         <v>5100</v>
       </c>
       <c r="H14" s="3">
-        <v>38700</v>
+        <v>39400</v>
       </c>
       <c r="I14" s="3">
-        <v>49800</v>
+        <v>50600</v>
       </c>
       <c r="J14" s="3">
-        <v>114000</v>
+        <v>115800</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2153800</v>
+        <v>2188600</v>
       </c>
       <c r="E17" s="3">
-        <v>1969700</v>
+        <v>2001500</v>
       </c>
       <c r="F17" s="3">
-        <v>1805200</v>
+        <v>1834300</v>
       </c>
       <c r="G17" s="3">
-        <v>1798200</v>
+        <v>1827200</v>
       </c>
       <c r="H17" s="3">
-        <v>2092300</v>
+        <v>2126100</v>
       </c>
       <c r="I17" s="3">
-        <v>1884500</v>
+        <v>1914900</v>
       </c>
       <c r="J17" s="3">
-        <v>1948800</v>
+        <v>1980200</v>
       </c>
       <c r="K17" s="3">
         <v>1855500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>287700</v>
+        <v>292400</v>
       </c>
       <c r="E18" s="3">
-        <v>469300</v>
+        <v>476900</v>
       </c>
       <c r="F18" s="3">
-        <v>419700</v>
+        <v>426500</v>
       </c>
       <c r="G18" s="3">
-        <v>337800</v>
+        <v>343200</v>
       </c>
       <c r="H18" s="3">
-        <v>229300</v>
+        <v>233000</v>
       </c>
       <c r="I18" s="3">
-        <v>142200</v>
+        <v>144500</v>
       </c>
       <c r="J18" s="3">
-        <v>72700</v>
+        <v>73800</v>
       </c>
       <c r="K18" s="3">
         <v>198800</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5400</v>
+        <v>2900</v>
       </c>
       <c r="E20" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="F20" s="3">
         <v>3300</v>
       </c>
       <c r="G20" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H20" s="3">
         <v>300</v>
       </c>
       <c r="I20" s="3">
-        <v>24900</v>
+        <v>25300</v>
       </c>
       <c r="J20" s="3">
-        <v>25500</v>
+        <v>25900</v>
       </c>
       <c r="K20" s="3">
         <v>12200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>529100</v>
+        <v>545200</v>
       </c>
       <c r="E21" s="3">
-        <v>605600</v>
+        <v>614900</v>
       </c>
       <c r="F21" s="3">
-        <v>538900</v>
+        <v>547200</v>
       </c>
       <c r="G21" s="3">
-        <v>489900</v>
+        <v>497300</v>
       </c>
       <c r="H21" s="3">
-        <v>499500</v>
+        <v>506700</v>
       </c>
       <c r="I21" s="3">
-        <v>358600</v>
+        <v>363700</v>
       </c>
       <c r="J21" s="3">
-        <v>295100</v>
+        <v>299200</v>
       </c>
       <c r="K21" s="3">
         <v>306800</v>
@@ -1121,26 +1121,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>8300</v>
       </c>
       <c r="E22" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="F22" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="G22" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="H22" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="I22" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="J22" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="K22" s="3">
         <v>11800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>282400</v>
+        <v>286900</v>
       </c>
       <c r="E23" s="3">
-        <v>467400</v>
+        <v>474900</v>
       </c>
       <c r="F23" s="3">
-        <v>415300</v>
+        <v>422100</v>
       </c>
       <c r="G23" s="3">
-        <v>330000</v>
+        <v>335300</v>
       </c>
       <c r="H23" s="3">
-        <v>220800</v>
+        <v>224400</v>
       </c>
       <c r="I23" s="3">
-        <v>157600</v>
+        <v>160100</v>
       </c>
       <c r="J23" s="3">
-        <v>87100</v>
+        <v>88500</v>
       </c>
       <c r="K23" s="3">
         <v>199200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>97500</v>
+        <v>99100</v>
       </c>
       <c r="E24" s="3">
-        <v>149500</v>
+        <v>151900</v>
       </c>
       <c r="F24" s="3">
-        <v>131900</v>
+        <v>134100</v>
       </c>
       <c r="G24" s="3">
-        <v>88700</v>
+        <v>90100</v>
       </c>
       <c r="H24" s="3">
-        <v>123000</v>
+        <v>125000</v>
       </c>
       <c r="I24" s="3">
-        <v>64900</v>
+        <v>66000</v>
       </c>
       <c r="J24" s="3">
-        <v>44800</v>
+        <v>45600</v>
       </c>
       <c r="K24" s="3">
         <v>77000</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>184800</v>
+        <v>187800</v>
       </c>
       <c r="E26" s="3">
-        <v>317900</v>
+        <v>323000</v>
       </c>
       <c r="F26" s="3">
-        <v>283400</v>
+        <v>288000</v>
       </c>
       <c r="G26" s="3">
-        <v>241300</v>
+        <v>245200</v>
       </c>
       <c r="H26" s="3">
-        <v>97800</v>
+        <v>99400</v>
       </c>
       <c r="I26" s="3">
-        <v>92600</v>
+        <v>94100</v>
       </c>
       <c r="J26" s="3">
-        <v>42300</v>
+        <v>43000</v>
       </c>
       <c r="K26" s="3">
         <v>122200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>184800</v>
+        <v>187800</v>
       </c>
       <c r="E27" s="3">
-        <v>317700</v>
+        <v>322800</v>
       </c>
       <c r="F27" s="3">
-        <v>283400</v>
+        <v>288000</v>
       </c>
       <c r="G27" s="3">
-        <v>241100</v>
+        <v>245000</v>
       </c>
       <c r="H27" s="3">
-        <v>97700</v>
+        <v>99300</v>
       </c>
       <c r="I27" s="3">
-        <v>92100</v>
+        <v>93600</v>
       </c>
       <c r="J27" s="3">
-        <v>41700</v>
+        <v>42400</v>
       </c>
       <c r="K27" s="3">
         <v>119800</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5400</v>
+        <v>-2900</v>
       </c>
       <c r="E32" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="F32" s="3">
         <v>-3300</v>
       </c>
       <c r="G32" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="H32" s="3">
         <v>-300</v>
       </c>
       <c r="I32" s="3">
-        <v>-24900</v>
+        <v>-25300</v>
       </c>
       <c r="J32" s="3">
-        <v>-25500</v>
+        <v>-25900</v>
       </c>
       <c r="K32" s="3">
         <v>-12200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>184800</v>
+        <v>187800</v>
       </c>
       <c r="E33" s="3">
-        <v>317700</v>
+        <v>322800</v>
       </c>
       <c r="F33" s="3">
-        <v>283400</v>
+        <v>288000</v>
       </c>
       <c r="G33" s="3">
-        <v>241100</v>
+        <v>245000</v>
       </c>
       <c r="H33" s="3">
-        <v>97700</v>
+        <v>99300</v>
       </c>
       <c r="I33" s="3">
-        <v>92100</v>
+        <v>93600</v>
       </c>
       <c r="J33" s="3">
-        <v>41700</v>
+        <v>42400</v>
       </c>
       <c r="K33" s="3">
         <v>119800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>184800</v>
+        <v>187800</v>
       </c>
       <c r="E35" s="3">
-        <v>317700</v>
+        <v>322800</v>
       </c>
       <c r="F35" s="3">
-        <v>283400</v>
+        <v>288000</v>
       </c>
       <c r="G35" s="3">
-        <v>241100</v>
+        <v>245000</v>
       </c>
       <c r="H35" s="3">
-        <v>97700</v>
+        <v>99300</v>
       </c>
       <c r="I35" s="3">
-        <v>92100</v>
+        <v>93600</v>
       </c>
       <c r="J35" s="3">
-        <v>41700</v>
+        <v>42400</v>
       </c>
       <c r="K35" s="3">
         <v>119800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1219700</v>
+        <v>1184500</v>
       </c>
       <c r="E41" s="3">
-        <v>1423000</v>
+        <v>1447500</v>
       </c>
       <c r="F41" s="3">
-        <v>1402000</v>
+        <v>1426200</v>
       </c>
       <c r="G41" s="3">
-        <v>1232800</v>
+        <v>1254000</v>
       </c>
       <c r="H41" s="3">
-        <v>1043900</v>
+        <v>1061900</v>
       </c>
       <c r="I41" s="3">
-        <v>546600</v>
+        <v>556100</v>
       </c>
       <c r="J41" s="3">
-        <v>928400</v>
+        <v>944500</v>
       </c>
       <c r="K41" s="3">
         <v>578800</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>295300</v>
+        <v>292300</v>
       </c>
       <c r="E43" s="3">
-        <v>303500</v>
+        <v>308700</v>
       </c>
       <c r="F43" s="3">
-        <v>248300</v>
+        <v>252600</v>
       </c>
       <c r="G43" s="3">
-        <v>248600</v>
+        <v>252900</v>
       </c>
       <c r="H43" s="3">
-        <v>234700</v>
+        <v>238700</v>
       </c>
       <c r="I43" s="3">
-        <v>305000</v>
+        <v>310300</v>
       </c>
       <c r="J43" s="3">
-        <v>575800</v>
+        <v>585700</v>
       </c>
       <c r="K43" s="3">
         <v>300600</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>92800</v>
+        <v>94400</v>
       </c>
       <c r="E44" s="3">
-        <v>77200</v>
+        <v>78500</v>
       </c>
       <c r="F44" s="3">
-        <v>63500</v>
+        <v>64600</v>
       </c>
       <c r="G44" s="3">
-        <v>69000</v>
+        <v>70100</v>
       </c>
       <c r="H44" s="3">
-        <v>85100</v>
+        <v>86600</v>
       </c>
       <c r="I44" s="3">
-        <v>119200</v>
+        <v>121200</v>
       </c>
       <c r="J44" s="3">
-        <v>392100</v>
+        <v>398800</v>
       </c>
       <c r="K44" s="3">
         <v>239500</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>134500</v>
+        <v>201100</v>
       </c>
       <c r="E45" s="3">
-        <v>124000</v>
+        <v>126200</v>
       </c>
       <c r="F45" s="3">
-        <v>102100</v>
+        <v>103800</v>
       </c>
       <c r="G45" s="3">
-        <v>73200</v>
+        <v>74500</v>
       </c>
       <c r="H45" s="3">
-        <v>67600</v>
+        <v>68800</v>
       </c>
       <c r="I45" s="3">
-        <v>109100</v>
+        <v>110900</v>
       </c>
       <c r="J45" s="3">
-        <v>354400</v>
+        <v>360500</v>
       </c>
       <c r="K45" s="3">
         <v>276300</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1742300</v>
+        <v>1772300</v>
       </c>
       <c r="E46" s="3">
-        <v>1927700</v>
+        <v>1960900</v>
       </c>
       <c r="F46" s="3">
-        <v>1815800</v>
+        <v>1847100</v>
       </c>
       <c r="G46" s="3">
-        <v>1623500</v>
+        <v>1651500</v>
       </c>
       <c r="H46" s="3">
-        <v>1431300</v>
+        <v>1456000</v>
       </c>
       <c r="I46" s="3">
-        <v>1079900</v>
+        <v>1098600</v>
       </c>
       <c r="J46" s="3">
-        <v>954600</v>
+        <v>971100</v>
       </c>
       <c r="K46" s="3">
         <v>1395200</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>188900</v>
+        <v>192200</v>
       </c>
       <c r="E47" s="3">
-        <v>234500</v>
+        <v>238600</v>
       </c>
       <c r="F47" s="3">
-        <v>237700</v>
+        <v>241800</v>
       </c>
       <c r="G47" s="3">
-        <v>233500</v>
+        <v>237500</v>
       </c>
       <c r="H47" s="3">
-        <v>247900</v>
+        <v>252100</v>
       </c>
       <c r="I47" s="3">
-        <v>247100</v>
+        <v>251400</v>
       </c>
       <c r="J47" s="3">
-        <v>271400</v>
+        <v>276100</v>
       </c>
       <c r="K47" s="3">
         <v>24400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1383800</v>
+        <v>1407600</v>
       </c>
       <c r="E48" s="3">
-        <v>763200</v>
+        <v>776400</v>
       </c>
       <c r="F48" s="3">
-        <v>733800</v>
+        <v>746500</v>
       </c>
       <c r="G48" s="3">
-        <v>701500</v>
+        <v>713600</v>
       </c>
       <c r="H48" s="3">
-        <v>744800</v>
+        <v>757700</v>
       </c>
       <c r="I48" s="3">
-        <v>735500</v>
+        <v>748200</v>
       </c>
       <c r="J48" s="3">
-        <v>1461800</v>
+        <v>1487000</v>
       </c>
       <c r="K48" s="3">
         <v>569500</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>319400</v>
+        <v>325000</v>
       </c>
       <c r="E49" s="3">
-        <v>353400</v>
+        <v>359500</v>
       </c>
       <c r="F49" s="3">
-        <v>342200</v>
+        <v>348100</v>
       </c>
       <c r="G49" s="3">
-        <v>322700</v>
+        <v>328300</v>
       </c>
       <c r="H49" s="3">
-        <v>366300</v>
+        <v>372600</v>
       </c>
       <c r="I49" s="3">
-        <v>566400</v>
+        <v>576200</v>
       </c>
       <c r="J49" s="3">
-        <v>1124400</v>
+        <v>1143800</v>
       </c>
       <c r="K49" s="3">
         <v>583200</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>255200</v>
+        <v>259600</v>
       </c>
       <c r="E52" s="3">
-        <v>229400</v>
+        <v>233400</v>
       </c>
       <c r="F52" s="3">
-        <v>240100</v>
+        <v>244300</v>
       </c>
       <c r="G52" s="3">
-        <v>247400</v>
+        <v>251700</v>
       </c>
       <c r="H52" s="3">
-        <v>255300</v>
+        <v>259700</v>
       </c>
       <c r="I52" s="3">
-        <v>262600</v>
+        <v>267100</v>
       </c>
       <c r="J52" s="3">
-        <v>653200</v>
+        <v>664400</v>
       </c>
       <c r="K52" s="3">
         <v>363300</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3889600</v>
+        <v>3956600</v>
       </c>
       <c r="E54" s="3">
-        <v>3508200</v>
+        <v>3568700</v>
       </c>
       <c r="F54" s="3">
-        <v>3369600</v>
+        <v>3427700</v>
       </c>
       <c r="G54" s="3">
-        <v>3128700</v>
+        <v>3182600</v>
       </c>
       <c r="H54" s="3">
-        <v>3045600</v>
+        <v>3098100</v>
       </c>
       <c r="I54" s="3">
-        <v>2891600</v>
+        <v>2941400</v>
       </c>
       <c r="J54" s="3">
-        <v>2789500</v>
+        <v>2837600</v>
       </c>
       <c r="K54" s="3">
         <v>2935600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>290100</v>
+        <v>103200</v>
       </c>
       <c r="E57" s="3">
-        <v>119300</v>
+        <v>121400</v>
       </c>
       <c r="F57" s="3">
-        <v>98600</v>
+        <v>100300</v>
       </c>
       <c r="G57" s="3">
-        <v>77300</v>
+        <v>78600</v>
       </c>
       <c r="H57" s="3">
-        <v>77800</v>
+        <v>79100</v>
       </c>
       <c r="I57" s="3">
-        <v>101800</v>
+        <v>103500</v>
       </c>
       <c r="J57" s="3">
-        <v>193900</v>
+        <v>197200</v>
       </c>
       <c r="K57" s="3">
         <v>131300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>262300</v>
+        <v>381900</v>
       </c>
       <c r="E58" s="3">
-        <v>97900</v>
+        <v>99600</v>
       </c>
       <c r="F58" s="3">
-        <v>110500</v>
+        <v>112400</v>
       </c>
       <c r="G58" s="3">
-        <v>98400</v>
+        <v>100100</v>
       </c>
       <c r="H58" s="3">
-        <v>83600</v>
+        <v>85100</v>
       </c>
       <c r="I58" s="3">
-        <v>55800</v>
+        <v>56700</v>
       </c>
       <c r="J58" s="3">
-        <v>139100</v>
+        <v>141500</v>
       </c>
       <c r="K58" s="3">
         <v>107700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>345600</v>
+        <v>428400</v>
       </c>
       <c r="E59" s="3">
-        <v>440100</v>
+        <v>447700</v>
       </c>
       <c r="F59" s="3">
-        <v>433900</v>
+        <v>441400</v>
       </c>
       <c r="G59" s="3">
-        <v>351800</v>
+        <v>357900</v>
       </c>
       <c r="H59" s="3">
-        <v>409200</v>
+        <v>416300</v>
       </c>
       <c r="I59" s="3">
-        <v>321300</v>
+        <v>326900</v>
       </c>
       <c r="J59" s="3">
-        <v>535400</v>
+        <v>544600</v>
       </c>
       <c r="K59" s="3">
         <v>302000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>898000</v>
+        <v>913500</v>
       </c>
       <c r="E60" s="3">
-        <v>657300</v>
+        <v>668600</v>
       </c>
       <c r="F60" s="3">
-        <v>643000</v>
+        <v>654100</v>
       </c>
       <c r="G60" s="3">
-        <v>527500</v>
+        <v>536600</v>
       </c>
       <c r="H60" s="3">
-        <v>570700</v>
+        <v>580500</v>
       </c>
       <c r="I60" s="3">
-        <v>478800</v>
+        <v>487100</v>
       </c>
       <c r="J60" s="3">
-        <v>447800</v>
+        <v>455500</v>
       </c>
       <c r="K60" s="3">
         <v>541000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>91500</v>
+        <v>93000</v>
       </c>
       <c r="E61" s="3">
-        <v>91000</v>
+        <v>92500</v>
       </c>
       <c r="F61" s="3">
-        <v>136800</v>
+        <v>139200</v>
       </c>
       <c r="G61" s="3">
-        <v>318400</v>
+        <v>323900</v>
       </c>
       <c r="H61" s="3">
-        <v>381100</v>
+        <v>387700</v>
       </c>
       <c r="I61" s="3">
-        <v>309900</v>
+        <v>315200</v>
       </c>
       <c r="J61" s="3">
-        <v>328600</v>
+        <v>334300</v>
       </c>
       <c r="K61" s="3">
         <v>205300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>404300</v>
+        <v>411300</v>
       </c>
       <c r="E62" s="3">
-        <v>194900</v>
+        <v>198200</v>
       </c>
       <c r="F62" s="3">
-        <v>227700</v>
+        <v>231600</v>
       </c>
       <c r="G62" s="3">
-        <v>100200</v>
+        <v>101900</v>
       </c>
       <c r="H62" s="3">
-        <v>112800</v>
+        <v>114700</v>
       </c>
       <c r="I62" s="3">
-        <v>75200</v>
+        <v>76500</v>
       </c>
       <c r="J62" s="3">
-        <v>201700</v>
+        <v>205200</v>
       </c>
       <c r="K62" s="3">
         <v>135000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1401200</v>
+        <v>1425400</v>
       </c>
       <c r="E66" s="3">
-        <v>950400</v>
+        <v>966800</v>
       </c>
       <c r="F66" s="3">
-        <v>1014500</v>
+        <v>1032000</v>
       </c>
       <c r="G66" s="3">
-        <v>953100</v>
+        <v>969500</v>
       </c>
       <c r="H66" s="3">
-        <v>1071300</v>
+        <v>1089700</v>
       </c>
       <c r="I66" s="3">
-        <v>870500</v>
+        <v>885500</v>
       </c>
       <c r="J66" s="3">
-        <v>857600</v>
+        <v>872400</v>
       </c>
       <c r="K66" s="3">
         <v>886500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1617200</v>
+        <v>1645100</v>
       </c>
       <c r="E72" s="3">
-        <v>1610500</v>
+        <v>1638300</v>
       </c>
       <c r="F72" s="3">
-        <v>1416800</v>
+        <v>1441200</v>
       </c>
       <c r="G72" s="3">
-        <v>1222800</v>
+        <v>1243800</v>
       </c>
       <c r="H72" s="3">
-        <v>1019000</v>
+        <v>1036500</v>
       </c>
       <c r="I72" s="3">
-        <v>951000</v>
+        <v>967400</v>
       </c>
       <c r="J72" s="3">
-        <v>1932000</v>
+        <v>1965400</v>
       </c>
       <c r="K72" s="3">
         <v>1037100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2488300</v>
+        <v>2531300</v>
       </c>
       <c r="E76" s="3">
-        <v>2557800</v>
+        <v>2601900</v>
       </c>
       <c r="F76" s="3">
-        <v>2355100</v>
+        <v>2395700</v>
       </c>
       <c r="G76" s="3">
-        <v>2175600</v>
+        <v>2213100</v>
       </c>
       <c r="H76" s="3">
-        <v>1974300</v>
+        <v>2008400</v>
       </c>
       <c r="I76" s="3">
-        <v>2021100</v>
+        <v>2055900</v>
       </c>
       <c r="J76" s="3">
-        <v>1931900</v>
+        <v>1965200</v>
       </c>
       <c r="K76" s="3">
         <v>2049100</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>184800</v>
+        <v>187800</v>
       </c>
       <c r="E81" s="3">
-        <v>317700</v>
+        <v>322800</v>
       </c>
       <c r="F81" s="3">
-        <v>283400</v>
+        <v>288000</v>
       </c>
       <c r="G81" s="3">
-        <v>241100</v>
+        <v>245000</v>
       </c>
       <c r="H81" s="3">
-        <v>97700</v>
+        <v>99300</v>
       </c>
       <c r="I81" s="3">
-        <v>92100</v>
+        <v>93600</v>
       </c>
       <c r="J81" s="3">
-        <v>41700</v>
+        <v>42400</v>
       </c>
       <c r="K81" s="3">
         <v>119800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>247000</v>
+        <v>251000</v>
       </c>
       <c r="E83" s="3">
-        <v>130900</v>
+        <v>133000</v>
       </c>
       <c r="F83" s="3">
-        <v>116000</v>
+        <v>117900</v>
       </c>
       <c r="G83" s="3">
-        <v>151300</v>
+        <v>153700</v>
       </c>
       <c r="H83" s="3">
-        <v>270200</v>
+        <v>274600</v>
       </c>
       <c r="I83" s="3">
-        <v>191700</v>
+        <v>194800</v>
       </c>
       <c r="J83" s="3">
-        <v>197200</v>
+        <v>200400</v>
       </c>
       <c r="K83" s="3">
         <v>95600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>475300</v>
+        <v>483000</v>
       </c>
       <c r="E89" s="3">
-        <v>456400</v>
+        <v>463800</v>
       </c>
       <c r="F89" s="3">
-        <v>501500</v>
+        <v>509600</v>
       </c>
       <c r="G89" s="3">
-        <v>406500</v>
+        <v>413100</v>
       </c>
       <c r="H89" s="3">
-        <v>662700</v>
+        <v>673400</v>
       </c>
       <c r="I89" s="3">
-        <v>420400</v>
+        <v>427200</v>
       </c>
       <c r="J89" s="3">
-        <v>276000</v>
+        <v>280500</v>
       </c>
       <c r="K89" s="3">
         <v>93000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-581200</v>
+        <v>-590600</v>
       </c>
       <c r="E91" s="3">
-        <v>-221200</v>
+        <v>-224800</v>
       </c>
       <c r="F91" s="3">
-        <v>-163800</v>
+        <v>-166400</v>
       </c>
       <c r="G91" s="3">
-        <v>-139100</v>
+        <v>-141300</v>
       </c>
       <c r="H91" s="3">
-        <v>-177200</v>
+        <v>-180100</v>
       </c>
       <c r="I91" s="3">
-        <v>-239400</v>
+        <v>-243300</v>
       </c>
       <c r="J91" s="3">
-        <v>-685500</v>
+        <v>-696600</v>
       </c>
       <c r="K91" s="3">
         <v>-90200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-577300</v>
+        <v>-586700</v>
       </c>
       <c r="E94" s="3">
-        <v>-209300</v>
+        <v>-212700</v>
       </c>
       <c r="F94" s="3">
-        <v>-171700</v>
+        <v>-174500</v>
       </c>
       <c r="G94" s="3">
-        <v>-126500</v>
+        <v>-128500</v>
       </c>
       <c r="H94" s="3">
-        <v>-174200</v>
+        <v>-177000</v>
       </c>
       <c r="I94" s="3">
-        <v>-227600</v>
+        <v>-231200</v>
       </c>
       <c r="J94" s="3">
-        <v>-440500</v>
+        <v>-447600</v>
       </c>
       <c r="K94" s="3">
         <v>-105200</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-129900</v>
+        <v>-132000</v>
       </c>
       <c r="E96" s="3">
-        <v>-123600</v>
+        <v>-125600</v>
       </c>
       <c r="F96" s="3">
-        <v>-89100</v>
+        <v>-90500</v>
       </c>
       <c r="G96" s="3">
-        <v>-37000</v>
+        <v>-37600</v>
       </c>
       <c r="H96" s="3">
-        <v>-29600</v>
+        <v>-30100</v>
       </c>
       <c r="I96" s="3">
-        <v>-32800</v>
+        <v>-33300</v>
       </c>
       <c r="J96" s="3">
-        <v>-54000</v>
+        <v>-54900</v>
       </c>
       <c r="K96" s="3">
         <v>-62900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-147400</v>
+        <v>-149800</v>
       </c>
       <c r="E100" s="3">
-        <v>-208200</v>
+        <v>-211600</v>
       </c>
       <c r="F100" s="3">
-        <v>-137500</v>
+        <v>-139700</v>
       </c>
       <c r="G100" s="3">
-        <v>-87500</v>
+        <v>-88900</v>
       </c>
       <c r="H100" s="3">
-        <v>-17400</v>
+        <v>-17700</v>
       </c>
       <c r="I100" s="3">
-        <v>-63200</v>
+        <v>-64300</v>
       </c>
       <c r="J100" s="3">
-        <v>32000</v>
+        <v>32500</v>
       </c>
       <c r="K100" s="3">
         <v>-112500</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8900</v>
+        <v>-9100</v>
       </c>
       <c r="E101" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="F101" s="3">
-        <v>-8900</v>
+        <v>-9000</v>
       </c>
       <c r="G101" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H101" s="3">
-        <v>-13600</v>
+        <v>-13800</v>
       </c>
       <c r="I101" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="J101" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="K101" s="3">
         <v>8500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-258400</v>
+        <v>-262500</v>
       </c>
       <c r="E102" s="3">
-        <v>44200</v>
+        <v>44900</v>
       </c>
       <c r="F102" s="3">
-        <v>183400</v>
+        <v>186400</v>
       </c>
       <c r="G102" s="3">
-        <v>193600</v>
+        <v>196700</v>
       </c>
       <c r="H102" s="3">
-        <v>457600</v>
+        <v>464900</v>
       </c>
       <c r="I102" s="3">
-        <v>135900</v>
+        <v>138100</v>
       </c>
       <c r="J102" s="3">
-        <v>-126800</v>
+        <v>-128800</v>
       </c>
       <c r="K102" s="3">
         <v>-116200</v>

--- a/AAII_Financials/Yearly/KNMCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/KNMCY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2480900</v>
+        <v>2525600</v>
       </c>
       <c r="E8" s="3">
-        <v>2478500</v>
+        <v>2523100</v>
       </c>
       <c r="F8" s="3">
-        <v>2260900</v>
+        <v>2301600</v>
       </c>
       <c r="G8" s="3">
-        <v>2170500</v>
+        <v>2209600</v>
       </c>
       <c r="H8" s="3">
-        <v>2359100</v>
+        <v>2401600</v>
       </c>
       <c r="I8" s="3">
-        <v>2059400</v>
+        <v>2096500</v>
       </c>
       <c r="J8" s="3">
-        <v>2054100</v>
+        <v>2091100</v>
       </c>
       <c r="K8" s="3">
         <v>2054300</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1539100</v>
+        <v>1566800</v>
       </c>
       <c r="E9" s="3">
-        <v>1466600</v>
+        <v>1493000</v>
       </c>
       <c r="F9" s="3">
-        <v>1342600</v>
+        <v>1366800</v>
       </c>
       <c r="G9" s="3">
-        <v>1332800</v>
+        <v>1356800</v>
       </c>
       <c r="H9" s="3">
-        <v>1533500</v>
+        <v>1561100</v>
       </c>
       <c r="I9" s="3">
-        <v>1384900</v>
+        <v>1409800</v>
       </c>
       <c r="J9" s="3">
-        <v>2848400</v>
+        <v>2899700</v>
       </c>
       <c r="K9" s="3">
         <v>1389100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>941800</v>
+        <v>958800</v>
       </c>
       <c r="E10" s="3">
-        <v>1011900</v>
+        <v>1030100</v>
       </c>
       <c r="F10" s="3">
-        <v>918200</v>
+        <v>934800</v>
       </c>
       <c r="G10" s="3">
-        <v>837600</v>
+        <v>852700</v>
       </c>
       <c r="H10" s="3">
-        <v>825500</v>
+        <v>840400</v>
       </c>
       <c r="I10" s="3">
-        <v>674500</v>
+        <v>686700</v>
       </c>
       <c r="J10" s="3">
-        <v>-794300</v>
+        <v>-808600</v>
       </c>
       <c r="K10" s="3">
         <v>665200</v>
@@ -849,7 +849,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="3">
-        <v>24700</v>
+        <v>25200</v>
       </c>
       <c r="K12" s="3">
         <v>21900</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>103700</v>
+        <v>105600</v>
       </c>
       <c r="E14" s="3">
-        <v>31100</v>
+        <v>31600</v>
       </c>
       <c r="F14" s="3">
         <v>-1600</v>
       </c>
       <c r="G14" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="H14" s="3">
-        <v>39400</v>
+        <v>40100</v>
       </c>
       <c r="I14" s="3">
-        <v>50600</v>
+        <v>51500</v>
       </c>
       <c r="J14" s="3">
-        <v>115800</v>
+        <v>117900</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2188600</v>
+        <v>2228000</v>
       </c>
       <c r="E17" s="3">
-        <v>2001500</v>
+        <v>2037600</v>
       </c>
       <c r="F17" s="3">
-        <v>1834300</v>
+        <v>1867400</v>
       </c>
       <c r="G17" s="3">
-        <v>1827200</v>
+        <v>1860100</v>
       </c>
       <c r="H17" s="3">
-        <v>2126100</v>
+        <v>2164400</v>
       </c>
       <c r="I17" s="3">
-        <v>1914900</v>
+        <v>1949400</v>
       </c>
       <c r="J17" s="3">
-        <v>1980200</v>
+        <v>2015900</v>
       </c>
       <c r="K17" s="3">
         <v>1855500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>292400</v>
+        <v>297600</v>
       </c>
       <c r="E18" s="3">
-        <v>476900</v>
+        <v>485500</v>
       </c>
       <c r="F18" s="3">
-        <v>426500</v>
+        <v>434200</v>
       </c>
       <c r="G18" s="3">
-        <v>343200</v>
+        <v>349400</v>
       </c>
       <c r="H18" s="3">
-        <v>233000</v>
+        <v>237200</v>
       </c>
       <c r="I18" s="3">
-        <v>144500</v>
+        <v>147100</v>
       </c>
       <c r="J18" s="3">
-        <v>73800</v>
+        <v>75200</v>
       </c>
       <c r="K18" s="3">
         <v>198800</v>
@@ -1059,10 +1059,10 @@
         <v>2900</v>
       </c>
       <c r="E20" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="F20" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G20" s="3">
         <v>1000</v>
@@ -1071,10 +1071,10 @@
         <v>300</v>
       </c>
       <c r="I20" s="3">
-        <v>25300</v>
+        <v>25800</v>
       </c>
       <c r="J20" s="3">
-        <v>25900</v>
+        <v>26300</v>
       </c>
       <c r="K20" s="3">
         <v>12200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>545200</v>
+        <v>555500</v>
       </c>
       <c r="E21" s="3">
-        <v>614900</v>
+        <v>626300</v>
       </c>
       <c r="F21" s="3">
-        <v>547200</v>
+        <v>557400</v>
       </c>
       <c r="G21" s="3">
-        <v>497300</v>
+        <v>506600</v>
       </c>
       <c r="H21" s="3">
-        <v>506700</v>
+        <v>516400</v>
       </c>
       <c r="I21" s="3">
-        <v>363700</v>
+        <v>370700</v>
       </c>
       <c r="J21" s="3">
-        <v>299200</v>
+        <v>305100</v>
       </c>
       <c r="K21" s="3">
         <v>306800</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="E22" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="F22" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="G22" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="H22" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="I22" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="J22" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="K22" s="3">
         <v>11800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>286900</v>
+        <v>292100</v>
       </c>
       <c r="E23" s="3">
-        <v>474900</v>
+        <v>483500</v>
       </c>
       <c r="F23" s="3">
-        <v>422100</v>
+        <v>429700</v>
       </c>
       <c r="G23" s="3">
-        <v>335300</v>
+        <v>341400</v>
       </c>
       <c r="H23" s="3">
-        <v>224400</v>
+        <v>228400</v>
       </c>
       <c r="I23" s="3">
-        <v>160100</v>
+        <v>163000</v>
       </c>
       <c r="J23" s="3">
-        <v>88500</v>
+        <v>90100</v>
       </c>
       <c r="K23" s="3">
         <v>199200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>99100</v>
+        <v>100900</v>
       </c>
       <c r="E24" s="3">
-        <v>151900</v>
+        <v>154700</v>
       </c>
       <c r="F24" s="3">
-        <v>134100</v>
+        <v>136500</v>
       </c>
       <c r="G24" s="3">
-        <v>90100</v>
+        <v>91700</v>
       </c>
       <c r="H24" s="3">
-        <v>125000</v>
+        <v>127200</v>
       </c>
       <c r="I24" s="3">
-        <v>66000</v>
+        <v>67200</v>
       </c>
       <c r="J24" s="3">
-        <v>45600</v>
+        <v>46400</v>
       </c>
       <c r="K24" s="3">
         <v>77000</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>187800</v>
+        <v>191200</v>
       </c>
       <c r="E26" s="3">
-        <v>323000</v>
+        <v>328800</v>
       </c>
       <c r="F26" s="3">
-        <v>288000</v>
+        <v>293200</v>
       </c>
       <c r="G26" s="3">
-        <v>245200</v>
+        <v>249600</v>
       </c>
       <c r="H26" s="3">
-        <v>99400</v>
+        <v>101200</v>
       </c>
       <c r="I26" s="3">
-        <v>94100</v>
+        <v>95800</v>
       </c>
       <c r="J26" s="3">
-        <v>43000</v>
+        <v>43700</v>
       </c>
       <c r="K26" s="3">
         <v>122200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>187800</v>
+        <v>191200</v>
       </c>
       <c r="E27" s="3">
-        <v>322800</v>
+        <v>328600</v>
       </c>
       <c r="F27" s="3">
-        <v>288000</v>
+        <v>293200</v>
       </c>
       <c r="G27" s="3">
-        <v>245000</v>
+        <v>249400</v>
       </c>
       <c r="H27" s="3">
-        <v>99300</v>
+        <v>101100</v>
       </c>
       <c r="I27" s="3">
-        <v>93600</v>
+        <v>95300</v>
       </c>
       <c r="J27" s="3">
-        <v>42400</v>
+        <v>43100</v>
       </c>
       <c r="K27" s="3">
         <v>119800</v>
@@ -1455,10 +1455,10 @@
         <v>-2900</v>
       </c>
       <c r="E32" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="F32" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="G32" s="3">
         <v>-1000</v>
@@ -1467,10 +1467,10 @@
         <v>-300</v>
       </c>
       <c r="I32" s="3">
-        <v>-25300</v>
+        <v>-25800</v>
       </c>
       <c r="J32" s="3">
-        <v>-25900</v>
+        <v>-26300</v>
       </c>
       <c r="K32" s="3">
         <v>-12200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>187800</v>
+        <v>191200</v>
       </c>
       <c r="E33" s="3">
-        <v>322800</v>
+        <v>328600</v>
       </c>
       <c r="F33" s="3">
-        <v>288000</v>
+        <v>293200</v>
       </c>
       <c r="G33" s="3">
-        <v>245000</v>
+        <v>249400</v>
       </c>
       <c r="H33" s="3">
-        <v>99300</v>
+        <v>101100</v>
       </c>
       <c r="I33" s="3">
-        <v>93600</v>
+        <v>95300</v>
       </c>
       <c r="J33" s="3">
-        <v>42400</v>
+        <v>43100</v>
       </c>
       <c r="K33" s="3">
         <v>119800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>187800</v>
+        <v>191200</v>
       </c>
       <c r="E35" s="3">
-        <v>322800</v>
+        <v>328600</v>
       </c>
       <c r="F35" s="3">
-        <v>288000</v>
+        <v>293200</v>
       </c>
       <c r="G35" s="3">
-        <v>245000</v>
+        <v>249400</v>
       </c>
       <c r="H35" s="3">
-        <v>99300</v>
+        <v>101100</v>
       </c>
       <c r="I35" s="3">
-        <v>93600</v>
+        <v>95300</v>
       </c>
       <c r="J35" s="3">
-        <v>42400</v>
+        <v>43100</v>
       </c>
       <c r="K35" s="3">
         <v>119800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1184500</v>
+        <v>1205800</v>
       </c>
       <c r="E41" s="3">
-        <v>1447500</v>
+        <v>1473600</v>
       </c>
       <c r="F41" s="3">
-        <v>1426200</v>
+        <v>1451800</v>
       </c>
       <c r="G41" s="3">
-        <v>1254000</v>
+        <v>1276600</v>
       </c>
       <c r="H41" s="3">
-        <v>1061900</v>
+        <v>1081000</v>
       </c>
       <c r="I41" s="3">
-        <v>556100</v>
+        <v>566100</v>
       </c>
       <c r="J41" s="3">
-        <v>944500</v>
+        <v>961500</v>
       </c>
       <c r="K41" s="3">
         <v>578800</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>292300</v>
+        <v>297500</v>
       </c>
       <c r="E43" s="3">
-        <v>308700</v>
+        <v>314300</v>
       </c>
       <c r="F43" s="3">
-        <v>252600</v>
+        <v>257100</v>
       </c>
       <c r="G43" s="3">
-        <v>252900</v>
+        <v>257500</v>
       </c>
       <c r="H43" s="3">
-        <v>238700</v>
+        <v>243000</v>
       </c>
       <c r="I43" s="3">
-        <v>310300</v>
+        <v>315900</v>
       </c>
       <c r="J43" s="3">
-        <v>585700</v>
+        <v>596300</v>
       </c>
       <c r="K43" s="3">
         <v>300600</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>94400</v>
+        <v>96100</v>
       </c>
       <c r="E44" s="3">
-        <v>78500</v>
+        <v>79900</v>
       </c>
       <c r="F44" s="3">
-        <v>64600</v>
+        <v>65700</v>
       </c>
       <c r="G44" s="3">
-        <v>70100</v>
+        <v>71400</v>
       </c>
       <c r="H44" s="3">
-        <v>86600</v>
+        <v>88100</v>
       </c>
       <c r="I44" s="3">
-        <v>121200</v>
+        <v>123400</v>
       </c>
       <c r="J44" s="3">
-        <v>398800</v>
+        <v>406000</v>
       </c>
       <c r="K44" s="3">
         <v>239500</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>201100</v>
+        <v>204800</v>
       </c>
       <c r="E45" s="3">
-        <v>126200</v>
+        <v>128400</v>
       </c>
       <c r="F45" s="3">
-        <v>103800</v>
+        <v>105700</v>
       </c>
       <c r="G45" s="3">
-        <v>74500</v>
+        <v>75800</v>
       </c>
       <c r="H45" s="3">
-        <v>68800</v>
+        <v>70000</v>
       </c>
       <c r="I45" s="3">
-        <v>110900</v>
+        <v>112900</v>
       </c>
       <c r="J45" s="3">
-        <v>360500</v>
+        <v>367000</v>
       </c>
       <c r="K45" s="3">
         <v>276300</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1772300</v>
+        <v>1804200</v>
       </c>
       <c r="E46" s="3">
-        <v>1960900</v>
+        <v>1996200</v>
       </c>
       <c r="F46" s="3">
-        <v>1847100</v>
+        <v>1880400</v>
       </c>
       <c r="G46" s="3">
-        <v>1651500</v>
+        <v>1681300</v>
       </c>
       <c r="H46" s="3">
-        <v>1456000</v>
+        <v>1482200</v>
       </c>
       <c r="I46" s="3">
-        <v>1098600</v>
+        <v>1118300</v>
       </c>
       <c r="J46" s="3">
-        <v>971100</v>
+        <v>988600</v>
       </c>
       <c r="K46" s="3">
         <v>1395200</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>192200</v>
+        <v>195600</v>
       </c>
       <c r="E47" s="3">
-        <v>238600</v>
+        <v>242900</v>
       </c>
       <c r="F47" s="3">
+        <v>246100</v>
+      </c>
+      <c r="G47" s="3">
         <v>241800</v>
       </c>
-      <c r="G47" s="3">
-        <v>237500</v>
-      </c>
       <c r="H47" s="3">
-        <v>252100</v>
+        <v>256700</v>
       </c>
       <c r="I47" s="3">
-        <v>251400</v>
+        <v>255900</v>
       </c>
       <c r="J47" s="3">
-        <v>276100</v>
+        <v>281100</v>
       </c>
       <c r="K47" s="3">
         <v>24400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1407600</v>
+        <v>1433000</v>
       </c>
       <c r="E48" s="3">
-        <v>776400</v>
+        <v>790300</v>
       </c>
       <c r="F48" s="3">
-        <v>746500</v>
+        <v>759900</v>
       </c>
       <c r="G48" s="3">
-        <v>713600</v>
+        <v>726500</v>
       </c>
       <c r="H48" s="3">
-        <v>757700</v>
+        <v>771300</v>
       </c>
       <c r="I48" s="3">
-        <v>748200</v>
+        <v>761700</v>
       </c>
       <c r="J48" s="3">
-        <v>1487000</v>
+        <v>1513800</v>
       </c>
       <c r="K48" s="3">
         <v>569500</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>325000</v>
+        <v>330800</v>
       </c>
       <c r="E49" s="3">
-        <v>359500</v>
+        <v>365900</v>
       </c>
       <c r="F49" s="3">
-        <v>348100</v>
+        <v>354300</v>
       </c>
       <c r="G49" s="3">
-        <v>328300</v>
+        <v>334200</v>
       </c>
       <c r="H49" s="3">
-        <v>372600</v>
+        <v>379300</v>
       </c>
       <c r="I49" s="3">
-        <v>576200</v>
+        <v>586600</v>
       </c>
       <c r="J49" s="3">
-        <v>1143800</v>
+        <v>1164400</v>
       </c>
       <c r="K49" s="3">
         <v>583200</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>259600</v>
+        <v>264200</v>
       </c>
       <c r="E52" s="3">
-        <v>233400</v>
+        <v>237600</v>
       </c>
       <c r="F52" s="3">
-        <v>244300</v>
+        <v>248700</v>
       </c>
       <c r="G52" s="3">
-        <v>251700</v>
+        <v>256200</v>
       </c>
       <c r="H52" s="3">
-        <v>259700</v>
+        <v>264400</v>
       </c>
       <c r="I52" s="3">
-        <v>267100</v>
+        <v>271900</v>
       </c>
       <c r="J52" s="3">
-        <v>664400</v>
+        <v>676400</v>
       </c>
       <c r="K52" s="3">
         <v>363300</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3956600</v>
+        <v>4027900</v>
       </c>
       <c r="E54" s="3">
-        <v>3568700</v>
+        <v>3632900</v>
       </c>
       <c r="F54" s="3">
-        <v>3427700</v>
+        <v>3489500</v>
       </c>
       <c r="G54" s="3">
-        <v>3182600</v>
+        <v>3240000</v>
       </c>
       <c r="H54" s="3">
-        <v>3098100</v>
+        <v>3153900</v>
       </c>
       <c r="I54" s="3">
-        <v>2941400</v>
+        <v>2994400</v>
       </c>
       <c r="J54" s="3">
-        <v>2837600</v>
+        <v>2888700</v>
       </c>
       <c r="K54" s="3">
         <v>2935600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>103200</v>
+        <v>105100</v>
       </c>
       <c r="E57" s="3">
-        <v>121400</v>
+        <v>123600</v>
       </c>
       <c r="F57" s="3">
-        <v>100300</v>
+        <v>102100</v>
       </c>
       <c r="G57" s="3">
-        <v>78600</v>
+        <v>80100</v>
       </c>
       <c r="H57" s="3">
-        <v>79100</v>
+        <v>80500</v>
       </c>
       <c r="I57" s="3">
-        <v>103500</v>
+        <v>105400</v>
       </c>
       <c r="J57" s="3">
-        <v>197200</v>
+        <v>200800</v>
       </c>
       <c r="K57" s="3">
         <v>131300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>381900</v>
+        <v>388700</v>
       </c>
       <c r="E58" s="3">
-        <v>99600</v>
+        <v>121900</v>
       </c>
       <c r="F58" s="3">
-        <v>112400</v>
+        <v>131600</v>
       </c>
       <c r="G58" s="3">
-        <v>100100</v>
+        <v>119100</v>
       </c>
       <c r="H58" s="3">
-        <v>85100</v>
+        <v>105200</v>
       </c>
       <c r="I58" s="3">
-        <v>56700</v>
+        <v>57700</v>
       </c>
       <c r="J58" s="3">
-        <v>141500</v>
+        <v>144100</v>
       </c>
       <c r="K58" s="3">
         <v>107700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>428400</v>
+        <v>436100</v>
       </c>
       <c r="E59" s="3">
-        <v>447700</v>
+        <v>435200</v>
       </c>
       <c r="F59" s="3">
-        <v>441400</v>
+        <v>432200</v>
       </c>
       <c r="G59" s="3">
-        <v>357900</v>
+        <v>347100</v>
       </c>
       <c r="H59" s="3">
-        <v>416300</v>
+        <v>405200</v>
       </c>
       <c r="I59" s="3">
-        <v>326900</v>
+        <v>332700</v>
       </c>
       <c r="J59" s="3">
-        <v>544600</v>
+        <v>554400</v>
       </c>
       <c r="K59" s="3">
         <v>302000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>913500</v>
+        <v>929900</v>
       </c>
       <c r="E60" s="3">
-        <v>668600</v>
+        <v>680700</v>
       </c>
       <c r="F60" s="3">
-        <v>654100</v>
+        <v>665900</v>
       </c>
       <c r="G60" s="3">
-        <v>536600</v>
+        <v>546300</v>
       </c>
       <c r="H60" s="3">
-        <v>580500</v>
+        <v>590900</v>
       </c>
       <c r="I60" s="3">
-        <v>487100</v>
+        <v>495900</v>
       </c>
       <c r="J60" s="3">
-        <v>455500</v>
+        <v>463700</v>
       </c>
       <c r="K60" s="3">
         <v>541000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>93000</v>
+        <v>94700</v>
       </c>
       <c r="E61" s="3">
-        <v>92500</v>
+        <v>189600</v>
       </c>
       <c r="F61" s="3">
-        <v>139200</v>
+        <v>267600</v>
       </c>
       <c r="G61" s="3">
-        <v>323900</v>
+        <v>329700</v>
       </c>
       <c r="H61" s="3">
-        <v>387700</v>
+        <v>394600</v>
       </c>
       <c r="I61" s="3">
-        <v>315200</v>
+        <v>320900</v>
       </c>
       <c r="J61" s="3">
-        <v>334300</v>
+        <v>340300</v>
       </c>
       <c r="K61" s="3">
         <v>205300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>411300</v>
+        <v>418700</v>
       </c>
       <c r="E62" s="3">
-        <v>198200</v>
+        <v>106400</v>
       </c>
       <c r="F62" s="3">
-        <v>231600</v>
+        <v>109900</v>
       </c>
       <c r="G62" s="3">
-        <v>101900</v>
+        <v>103700</v>
       </c>
       <c r="H62" s="3">
-        <v>114700</v>
+        <v>116800</v>
       </c>
       <c r="I62" s="3">
-        <v>76500</v>
+        <v>77900</v>
       </c>
       <c r="J62" s="3">
-        <v>205200</v>
+        <v>208900</v>
       </c>
       <c r="K62" s="3">
         <v>135000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1425400</v>
+        <v>1451000</v>
       </c>
       <c r="E66" s="3">
-        <v>966800</v>
+        <v>984200</v>
       </c>
       <c r="F66" s="3">
-        <v>1032000</v>
+        <v>1050600</v>
       </c>
       <c r="G66" s="3">
-        <v>969500</v>
+        <v>987000</v>
       </c>
       <c r="H66" s="3">
-        <v>1089700</v>
+        <v>1109300</v>
       </c>
       <c r="I66" s="3">
-        <v>885500</v>
+        <v>901400</v>
       </c>
       <c r="J66" s="3">
-        <v>872400</v>
+        <v>888100</v>
       </c>
       <c r="K66" s="3">
         <v>886500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1645100</v>
+        <v>1674700</v>
       </c>
       <c r="E72" s="3">
-        <v>1638300</v>
+        <v>1667800</v>
       </c>
       <c r="F72" s="3">
-        <v>1441200</v>
+        <v>1467100</v>
       </c>
       <c r="G72" s="3">
-        <v>1243800</v>
+        <v>1266200</v>
       </c>
       <c r="H72" s="3">
-        <v>1036500</v>
+        <v>1055200</v>
       </c>
       <c r="I72" s="3">
-        <v>967400</v>
+        <v>984800</v>
       </c>
       <c r="J72" s="3">
-        <v>1965400</v>
+        <v>2000800</v>
       </c>
       <c r="K72" s="3">
         <v>1037100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2531300</v>
+        <v>2576800</v>
       </c>
       <c r="E76" s="3">
-        <v>2601900</v>
+        <v>2648800</v>
       </c>
       <c r="F76" s="3">
-        <v>2395700</v>
+        <v>2438800</v>
       </c>
       <c r="G76" s="3">
-        <v>2213100</v>
+        <v>2253000</v>
       </c>
       <c r="H76" s="3">
-        <v>2008400</v>
+        <v>2044500</v>
       </c>
       <c r="I76" s="3">
-        <v>2055900</v>
+        <v>2093000</v>
       </c>
       <c r="J76" s="3">
-        <v>1965200</v>
+        <v>2000600</v>
       </c>
       <c r="K76" s="3">
         <v>2049100</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>187800</v>
+        <v>191200</v>
       </c>
       <c r="E81" s="3">
-        <v>322800</v>
+        <v>328600</v>
       </c>
       <c r="F81" s="3">
-        <v>288000</v>
+        <v>293200</v>
       </c>
       <c r="G81" s="3">
-        <v>245000</v>
+        <v>249400</v>
       </c>
       <c r="H81" s="3">
-        <v>99300</v>
+        <v>101100</v>
       </c>
       <c r="I81" s="3">
-        <v>93600</v>
+        <v>95300</v>
       </c>
       <c r="J81" s="3">
-        <v>42400</v>
+        <v>43100</v>
       </c>
       <c r="K81" s="3">
         <v>119800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>251000</v>
+        <v>255500</v>
       </c>
       <c r="E83" s="3">
-        <v>133000</v>
+        <v>135400</v>
       </c>
       <c r="F83" s="3">
-        <v>117900</v>
+        <v>120000</v>
       </c>
       <c r="G83" s="3">
-        <v>153700</v>
+        <v>156500</v>
       </c>
       <c r="H83" s="3">
-        <v>274600</v>
+        <v>279500</v>
       </c>
       <c r="I83" s="3">
-        <v>194800</v>
+        <v>198300</v>
       </c>
       <c r="J83" s="3">
-        <v>200400</v>
+        <v>204000</v>
       </c>
       <c r="K83" s="3">
         <v>95600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>483000</v>
+        <v>491700</v>
       </c>
       <c r="E89" s="3">
-        <v>463800</v>
+        <v>472100</v>
       </c>
       <c r="F89" s="3">
-        <v>509600</v>
+        <v>518700</v>
       </c>
       <c r="G89" s="3">
-        <v>413100</v>
+        <v>420500</v>
       </c>
       <c r="H89" s="3">
-        <v>673400</v>
+        <v>685500</v>
       </c>
       <c r="I89" s="3">
-        <v>427200</v>
+        <v>434900</v>
       </c>
       <c r="J89" s="3">
-        <v>280500</v>
+        <v>285500</v>
       </c>
       <c r="K89" s="3">
         <v>93000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-590600</v>
+        <v>-601200</v>
       </c>
       <c r="E91" s="3">
-        <v>-224800</v>
+        <v>-228800</v>
       </c>
       <c r="F91" s="3">
-        <v>-166400</v>
+        <v>-169400</v>
       </c>
       <c r="G91" s="3">
-        <v>-141300</v>
+        <v>-143900</v>
       </c>
       <c r="H91" s="3">
-        <v>-180100</v>
+        <v>-183300</v>
       </c>
       <c r="I91" s="3">
-        <v>-243300</v>
+        <v>-247600</v>
       </c>
       <c r="J91" s="3">
-        <v>-696600</v>
+        <v>-709100</v>
       </c>
       <c r="K91" s="3">
         <v>-90200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-586700</v>
+        <v>-597200</v>
       </c>
       <c r="E94" s="3">
-        <v>-212700</v>
+        <v>-216500</v>
       </c>
       <c r="F94" s="3">
-        <v>-174500</v>
+        <v>-177600</v>
       </c>
       <c r="G94" s="3">
-        <v>-128500</v>
+        <v>-130800</v>
       </c>
       <c r="H94" s="3">
-        <v>-177000</v>
+        <v>-180100</v>
       </c>
       <c r="I94" s="3">
-        <v>-231200</v>
+        <v>-235400</v>
       </c>
       <c r="J94" s="3">
-        <v>-447600</v>
+        <v>-455700</v>
       </c>
       <c r="K94" s="3">
         <v>-105200</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-132000</v>
+        <v>-134400</v>
       </c>
       <c r="E96" s="3">
-        <v>-125600</v>
+        <v>-127800</v>
       </c>
       <c r="F96" s="3">
-        <v>-90500</v>
+        <v>-92200</v>
       </c>
       <c r="G96" s="3">
-        <v>-37600</v>
+        <v>-38300</v>
       </c>
       <c r="H96" s="3">
-        <v>-30100</v>
+        <v>-30600</v>
       </c>
       <c r="I96" s="3">
-        <v>-33300</v>
+        <v>-33900</v>
       </c>
       <c r="J96" s="3">
-        <v>-54900</v>
+        <v>-55900</v>
       </c>
       <c r="K96" s="3">
         <v>-62900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-149800</v>
+        <v>-152500</v>
       </c>
       <c r="E100" s="3">
-        <v>-211600</v>
+        <v>-215400</v>
       </c>
       <c r="F100" s="3">
-        <v>-139700</v>
+        <v>-142200</v>
       </c>
       <c r="G100" s="3">
-        <v>-88900</v>
+        <v>-90500</v>
       </c>
       <c r="H100" s="3">
-        <v>-17700</v>
+        <v>-18000</v>
       </c>
       <c r="I100" s="3">
-        <v>-64300</v>
+        <v>-65400</v>
       </c>
       <c r="J100" s="3">
-        <v>32500</v>
+        <v>33100</v>
       </c>
       <c r="K100" s="3">
         <v>-112500</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-9100</v>
+        <v>-9200</v>
       </c>
       <c r="E101" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="F101" s="3">
-        <v>-9000</v>
+        <v>-9200</v>
       </c>
       <c r="G101" s="3">
         <v>1100</v>
       </c>
       <c r="H101" s="3">
-        <v>-13800</v>
+        <v>-14000</v>
       </c>
       <c r="I101" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="J101" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="K101" s="3">
         <v>8500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-262500</v>
+        <v>-267300</v>
       </c>
       <c r="E102" s="3">
-        <v>44900</v>
+        <v>45700</v>
       </c>
       <c r="F102" s="3">
-        <v>186400</v>
+        <v>189700</v>
       </c>
       <c r="G102" s="3">
-        <v>196700</v>
+        <v>200200</v>
       </c>
       <c r="H102" s="3">
-        <v>464900</v>
+        <v>473300</v>
       </c>
       <c r="I102" s="3">
-        <v>138100</v>
+        <v>140600</v>
       </c>
       <c r="J102" s="3">
-        <v>-128800</v>
+        <v>-131100</v>
       </c>
       <c r="K102" s="3">
         <v>-116200</v>
